--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 7-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 7-2024.xlsx
@@ -561,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,17 +602,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại HỆ THỐNG</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -622,7 +622,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -632,7 +632,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại HỆ THỐNG</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -642,7 +642,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại HỆ THỐNG</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -652,7 +652,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,37 +662,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ứng lương tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -702,7 +702,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -712,7 +712,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -722,7 +722,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -732,7 +732,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -742,37 +742,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>3531428.571428571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -782,7 +782,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -792,7 +792,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -802,7 +802,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -812,7 +812,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -822,27 +822,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3531428.571428571</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -852,7 +852,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -862,100 +862,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3371428.571428571</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-1000000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3371428.571428571</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
         <v>3371428.571428571</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 7-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 7-2024.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn phụ phẫu 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,20 +535,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>596</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>bảo trân</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
-        <v>0</v>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +616,134 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>583</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>07-23-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ trinh</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục lương</t>
         </is>
       </c>
@@ -582,47 +754,47 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Phụ cấp tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Lương công tác tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -632,7 +804,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -642,7 +814,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -652,7 +824,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,7 +834,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -672,27 +844,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v/>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -702,7 +874,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -712,7 +884,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -722,17 +894,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -742,7 +914,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -752,27 +924,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3531428.571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -782,7 +954,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -792,57 +964,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3825714.285714285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -852,7 +1024,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -862,21 +1034,81 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3371428.571428571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-2000000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2835714.285714285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>3371428.571428571</v>
+      <c r="B37" t="n">
+        <v>2835714.285714285</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 7-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-26 Trần Khánh Hiệp 7-2024.xlsx
@@ -733,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +764,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương công tác tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -774,27 +774,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương công tác tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -804,7 +804,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -814,7 +814,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -824,7 +824,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -844,27 +844,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -874,17 +874,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -894,17 +894,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -914,7 +914,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -924,7 +924,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -934,7 +934,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -944,67 +944,67 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>3825714.285714285</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Phụ cấp tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>910000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3825714.285714285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1014,7 +1014,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1024,90 +1024,70 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-2000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>2835714.285714285</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2835714.285714285</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
         <v>2835714.285714285</v>
       </c>
     </row>
